--- a/data/trans_dic/P32C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P32C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>1,26; 8,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>1,99; 9,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>0,0; 7,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>0,0; 6,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>0,9; 6,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,66; 6,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>0,89; 5,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,58; 3,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>1,19; 5,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,71; 4,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,41; 2,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,89; 4,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,84; 4,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,17 +1034,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>0,0; 3,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,27; 2,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,84; 3,48</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,17 +1111,17 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>1,0; 5,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,51; 6,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>0,4; 3,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>0,0; 5,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0,81; 4,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,78; 4,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,37; 2,67</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,0; 4,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0,71; 6,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>0,0; 15,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0,0; 23,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>0,0; 6,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>0,5; 5,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0,0; 5,62</t>
         </is>
       </c>
     </row>
@@ -1356,27 +1356,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1391,27 +1391,27 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -1424,27 +1424,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,0; 3,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>0,5; 4,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>0,0; 5,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>0,56; 6,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,29; 2,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,91; 4,28</t>
         </is>
       </c>
     </row>
@@ -1496,22 +1496,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1521,37 +1521,37 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -1564,22 +1564,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>1,15; 4,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>1,0; 3,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,15; 4,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,94; 4,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1589,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0,05; 5,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,83; 3,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,79; 2,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,81; 2,85</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,88; 4,1</t>
         </is>
       </c>
     </row>
@@ -1636,37 +1636,37 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1676,22 +1676,22 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -1704,37 +1704,37 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,66; 2,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,71; 3,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,26; 2,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,23; 2,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,42; 3,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>0,0; 2,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,22 +1744,22 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,64; 2,27</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,5; 2,67</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,32; 1,98</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,3; 2,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,5; 2,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,12; 2,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,82; 1,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,41; 1,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,1; 0,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,19; 1,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,48; 2,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,13; 2,09</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,04; 1,91</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,86; 1,67</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,8; 1,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,61; 11,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 7,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,8</t>
+          <t>0,81; 4,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,48</t>
+          <t>0,83; 3,43</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,9</t>
+          <t>0,55; 5,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,51</t>
+          <t>0,39; 3,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0; 2,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,68</t>
+          <t>0,36; 3,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,67</t>
+          <t>0,37; 2,58</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,99</t>
+          <t>0,0; 24,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,62</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,01%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,39</t>
+          <t>0,48; 4,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,56</t>
+          <t>0,55; 6,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,28</t>
+          <t>0,91; 4,22</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,63%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,55</t>
+          <t>0,9; 4,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,08</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,1</t>
+          <t>0,56; 3,3</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,65</t>
+          <t>0,23; 2,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
     </row>
@@ -1791,47 +1791,47 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
           <t>1,23%</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,82</t>
+          <t>0,79; 1,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,22</t>
+          <t>0,36; 1,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,65</t>
+          <t>0,73; 1,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32C-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 8,43</t>
+          <t>1,29; 8,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,65</t>
+          <t>3,43; 11,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 9,14</t>
+          <t>1,8; 9,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +745,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,74</t>
+          <t>0,0; 7,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,71</t>
+          <t>0,0; 5,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,19</t>
+          <t>0,0; 6,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +765,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,8</t>
+          <t>1,31; 6,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,59</t>
+          <t>2,53; 7,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,38</t>
+          <t>1,67; 6,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +865,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,33</t>
+          <t>0,88; 5,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,57</t>
+          <t>0,61; 3,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,69</t>
+          <t>1,19; 5,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -904,17 +905,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,24</t>
+          <t>0,67; 4,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,55</t>
+          <t>0,38; 2,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,08</t>
+          <t>0,87; 4,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +927,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0,0; 2,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,64</t>
+          <t>0,87; 4,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,17 +1035,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,54</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,4</t>
+          <t>0,27; 2,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,43</t>
+          <t>0,82; 3,41</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,86</t>
+          <t>0,83; 5,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,15</t>
+          <t>0,55; 5,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,12 +1160,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,45</t>
+          <t>0,38; 3,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,54</t>
+          <t>0,0; 6,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1179,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,34</t>
+          <t>0,67; 4,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,35</t>
+          <t>0,38; 3,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,58</t>
+          <t>0,26; 2,33</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,24</t>
+          <t>0,0; 4,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,98</t>
+          <t>0,7; 6,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1304,7 +1305,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,81</t>
+          <t>0,0; 18,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1319,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,81</t>
+          <t>0,0; 27,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,36</t>
+          <t>0,0; 6,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,08</t>
+          <t>0,5; 4,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,14 +1340,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,7</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,27 +1425,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,0; 3,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,47</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,31</t>
+          <t>0,52; 4,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,19</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1459,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,49</t>
+          <t>0,55; 6,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,57</t>
+          <t>0,29; 2,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,14 +1480,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,22</t>
+          <t>0,86; 3,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,22 +1565,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,85</t>
+          <t>0,99; 4,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,84</t>
+          <t>1,11; 3,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,56</t>
+          <t>1,28; 4,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,4</t>
+          <t>0,99; 4,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,37 +1590,37 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,73</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,48</t>
+          <t>0,65; 3,37</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,87</t>
+          <t>0,83; 2,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,85</t>
+          <t>0,92; 3,04</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,3</t>
+          <t>0,56; 3,33</t>
         </is>
       </c>
     </row>
@@ -1704,37 +1705,37 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,76</t>
+          <t>0,67; 2,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,77</t>
+          <t>0,7; 3,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,22</t>
+          <t>0,25; 2,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,69</t>
+          <t>0,24; 2,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,5</t>
+          <t>0,42; 3,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,65</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,0</t>
+          <t>0,0; 3,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,22 +1745,22 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,27</t>
+          <t>0,74; 2,41</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,67</t>
+          <t>0,64; 2,6</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,98</t>
+          <t>0,41; 1,84</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,17; 2,14</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,59</t>
+          <t>1,31; 2,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,77</t>
+          <t>1,46; 2,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,24</t>
+          <t>1,14; 2,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,78</t>
+          <t>0,71; 1,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,81</t>
+          <t>0,39; 1,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,78</t>
+          <t>0,1; 0,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,09</t>
+          <t>0,26; 1,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,96</t>
+          <t>0,35; 1,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,09</t>
+          <t>1,13; 2,15</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,91</t>
+          <t>1,03; 1,94</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,67</t>
+          <t>0,89; 1,67</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,59</t>
+          <t>0,74; 1,55</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha bebido alguna vez para calmar los nervios o para evitar la resaca</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5574</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11537</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8097</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6562</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12549</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10123</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1887; 12065</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6018; 20629</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3215; 16357</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1866</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5733</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5990</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6994</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1061</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2869; 14496</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7198; 22060</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4742; 18069</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1492</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6019</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4991</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7458</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6019</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4991</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7458</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2005; 12349</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1877; 10998</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3171; 14882</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2712</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1909</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2076</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1526</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2029; 12706</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1736; 11726</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3190; 14723</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2187</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1834</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2831</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4960</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4755</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1894</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6409</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1619; 7654</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2075</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6018</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3492</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4061</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1966</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>861; 6831</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2246; 9405</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5903</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2314</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1458</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7361</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3216</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1973; 12791</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1027; 9344</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>681; 6676</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 8519</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1992</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3306</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2463; 14820</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1031; 9469</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2042</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>775; 7034</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3094</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1658</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2553</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3094</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4511</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>892; 8067</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1904</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1267</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8540</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1990</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1746</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2375</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9440</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>909; 8477</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2437</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3029</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2940</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6577</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5341</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5073</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>859; 7330</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4919</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1962</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1899</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>526; 5825</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>876; 8364</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5337</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5080</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2248; 10324</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8624</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9415</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6871</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>9625</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>10421</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>11514</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2872; 14075</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4371; 15303</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4895; 17096</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3056; 13381</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6010</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6405</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 16412</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2743; 14159</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5012; 17036</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5916; 19528</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3983; 23611</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>6954</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>7654</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2695</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3048</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2181</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>8679</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>6328</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2695</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3304; 13776</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3200; 15523</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1131; 10002</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>660; 7416</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>998; 8261</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5098</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7587</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1387</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>5406; 17647</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4269; 17387</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2838; 12801</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>658; 8079</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>35262</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>40920</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>31963</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>18817</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>8180</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>3038</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>9252</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>43443</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>43958</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>38173</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>28069</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>24534; 49733</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>29656; 56954</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>22488; 44608</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>11182; 27422</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3529; 16377</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1001; 9173</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2921; 13756</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>3608; 18783</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>31280; 59731</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>31615; 59712</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>27679; 52044</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>19245; 40527</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>